--- a/secure/26e-Benjamin.xlsx
+++ b/secure/26e-Benjamin.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26e-Benjamin-133693</t>
+    <t>26e-Benjamin-767581</t>
   </si>
   <si>
-    <t>26e-Benjamin-409381</t>
+    <t>26e-Benjamin-812272</t>
   </si>
   <si>
-    <t>26e-Benjamin-698884</t>
+    <t>26e-Benjamin-722618</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F2fd7eb3"/>
+        <fgColor rgb="Fc1fe61b"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:RW503"/>
+  <dimension ref="A1:SO503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -817,11 +817,14 @@
       </c>
       <c r="M61" s="4"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:435" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>-0.76</v>
       </c>
       <c r="M62" s="4"/>
+      <c r="PS62" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
@@ -1819,14 +1822,11 @@
       </c>
       <c r="M228" s="4"/>
     </row>
-    <row r="229" spans="1:491" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>-0.092</v>
       </c>
       <c r="M229" s="4"/>
-      <c r="RW229" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
@@ -1984,11 +1984,14 @@
       </c>
       <c r="M255" s="4"/>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:425" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>0.016</v>
       </c>
       <c r="M256" s="4"/>
+      <c r="PI256" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
@@ -2134,11 +2137,14 @@
       </c>
       <c r="M280" s="4"/>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:509" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>0.116</v>
       </c>
       <c r="M281" s="4"/>
+      <c r="SO281" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
@@ -2446,14 +2452,11 @@
       </c>
       <c r="M332" s="4"/>
     </row>
-    <row r="333" spans="1:238" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>0.324</v>
       </c>
       <c r="M333" s="4"/>
-      <c r="ID333" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
@@ -2479,14 +2482,11 @@
       </c>
       <c r="M337" s="4"/>
     </row>
-    <row r="338" spans="1:138" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>0.344</v>
       </c>
       <c r="M338" s="4"/>
-      <c r="EH338" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
